--- a/testcase.xlsx
+++ b/testcase.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\test case\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Softino\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="172">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -38,9 +38,6 @@
     <t>Type of Testing</t>
   </si>
   <si>
-    <t>Festures</t>
-  </si>
-  <si>
     <t>Test Cases</t>
   </si>
   <si>
@@ -74,9 +71,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Chrome, Opera mini, Brave</t>
-  </si>
-  <si>
     <t>1. Go to different browsers</t>
   </si>
   <si>
@@ -92,177 +86,18 @@
     <t>Registration</t>
   </si>
   <si>
-    <t>Keeping all the mandatory input fields blank</t>
-  </si>
-  <si>
-    <t>Should pop an error for all the fields</t>
-  </si>
-  <si>
-    <t>1.Go to the website. 2. Click on the register page. 3. keep all the fields blank. 4. Click the register button</t>
-  </si>
-  <si>
-    <t>Giving all valid data to the mandatory fields</t>
-  </si>
-  <si>
-    <t>Should show successfully registered</t>
-  </si>
-  <si>
-    <t>jake peralta, jakeperalta54@yahoo.com</t>
-  </si>
-  <si>
-    <t>1. Go to the website. 2. click on the registre page 3. put all the valid data 4. click register button</t>
-  </si>
-  <si>
-    <t>Should pop an error</t>
-  </si>
-  <si>
-    <t>1. Go to the website. 2. click on the registre page 3. give same number for different users 4. click register button</t>
-  </si>
-  <si>
-    <t>Giving same phone number for different users and fillup other fields with valid data</t>
-  </si>
-  <si>
-    <t>Giving same email for different users and fillup other fields with valid data</t>
-  </si>
-  <si>
-    <t>submanmahin@gmail.com</t>
-  </si>
-  <si>
-    <t>1. go to the website 2. click on the register page 3. give same email and valid data for other fields 4. click on the register button</t>
-  </si>
-  <si>
-    <t>Checking password field is encrypted</t>
-  </si>
-  <si>
-    <t>should show asterisk sign while typing password</t>
-  </si>
-  <si>
-    <t>*****</t>
-  </si>
-  <si>
-    <t>1. go to the website 2. click on the register page 3. type in the password field</t>
-  </si>
-  <si>
-    <t>checking the password fiels should take minimum 8 characters</t>
-  </si>
-  <si>
-    <t>should shown error for less than 8 characters</t>
-  </si>
-  <si>
     <t>Did not found as per expectation</t>
   </si>
   <si>
-    <t>1. go to the website 2. click on the tregister page 3. type in the password field</t>
-  </si>
-  <si>
     <t>Failed</t>
   </si>
   <si>
-    <t>checking the password field and confirm password field are matched with the same data</t>
-  </si>
-  <si>
-    <t>should pop an error if not matched</t>
-  </si>
-  <si>
     <t>jawan@20</t>
   </si>
   <si>
-    <t>1. go to the website 2. click on the register page 3. type in the password field and confirm password field. 4. click on the registre button</t>
-  </si>
-  <si>
-    <t>checking the eye button is added in the password fields</t>
-  </si>
-  <si>
     <t>should shown an eye button</t>
   </si>
   <si>
-    <t>1. go to the website 2. click on the register page 3. check the password field for eye button</t>
-  </si>
-  <si>
-    <t>checking if there's any dummy data as placeholder text in the input fields</t>
-  </si>
-  <si>
-    <t>should show dummy data</t>
-  </si>
-  <si>
-    <t>1. go to the website 2. click on the register page 3. check for dummy data in the input fields</t>
-  </si>
-  <si>
-    <t>checking that the user can navigate or access the different controls by pressing tab key</t>
-  </si>
-  <si>
-    <t>should go into the next field</t>
-  </si>
-  <si>
-    <t>1. go to the website 2. click on the register page 3. press tab key for navigate</t>
-  </si>
-  <si>
-    <t>checking the valiation is added the email field</t>
-  </si>
-  <si>
-    <t>should sent validation code in the email</t>
-  </si>
-  <si>
-    <t>1. go to the website 2. click on the register page 3. type email for validation</t>
-  </si>
-  <si>
-    <t>checking the email field for recognizing the valid email</t>
-  </si>
-  <si>
-    <t>should take valid email</t>
-  </si>
-  <si>
-    <t>mahin@gmal.com</t>
-  </si>
-  <si>
-    <t>1. go to the website 2. click on the register page 3. type in the email field</t>
-  </si>
-  <si>
-    <t>checking the valiation is added in the phone number field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">should sent validation code in the </t>
-  </si>
-  <si>
-    <t>1. go to the website 2. click on the register page 3. give phone number in the number field 4. check for codes in messages</t>
-  </si>
-  <si>
-    <t>verifying by clicking the gender option only once male or female</t>
-  </si>
-  <si>
-    <t>should select one option</t>
-  </si>
-  <si>
-    <t>1. go to the website 2. click on the register page 3. click on the gender options</t>
-  </si>
-  <si>
-    <t>checking that the user added information is not removed from the fiedls if validation fails</t>
-  </si>
-  <si>
-    <t>should show added information after failed validation</t>
-  </si>
-  <si>
-    <t>1. go to the website 2. click on the register page 3. fill all the data</t>
-  </si>
-  <si>
-    <t>checking that the phone verification is sent to the user's phone successfully</t>
-  </si>
-  <si>
-    <t>should sent a verification code to user's phone</t>
-  </si>
-  <si>
-    <t>1. go to the website 2. click on the register page 3. enter valid phone number for verification</t>
-  </si>
-  <si>
-    <t>checking that the user can not access the application without verifying the phone number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">should not access to the software </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. go to the website </t>
-  </si>
-  <si>
     <t>Login</t>
   </si>
   <si>
@@ -510,13 +345,208 @@
   </si>
   <si>
     <t>1. go to the website 2. check responsiveness on different devices</t>
+  </si>
+  <si>
+    <t>Features</t>
+  </si>
+  <si>
+    <t>Chrome, Opera mini, Brave, Firefox</t>
+  </si>
+  <si>
+    <t>Did not Found as per expectations</t>
+  </si>
+  <si>
+    <t>checking the alignment in the "powering innovation for next gen drilling" if its in double line</t>
+  </si>
+  <si>
+    <t>Should be in the same alignmnet</t>
+  </si>
+  <si>
+    <t>1. Go to the website. 2.check in the header section</t>
+  </si>
+  <si>
+    <t>Header</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>Verify "Learn More" button in services section</t>
+  </si>
+  <si>
+    <t>The button should navigate to the services page or appropriate section</t>
+  </si>
+  <si>
+    <t>Did not found as per expectations</t>
+  </si>
+  <si>
+    <t>1. go to the homapage 2. Scroll to the services section 3. Click the "learn More" button</t>
+  </si>
+  <si>
+    <t>Navigation Menu</t>
+  </si>
+  <si>
+    <t>Verify Navigation menu links</t>
+  </si>
+  <si>
+    <t>Each link should navigate to the correct section/page without any error</t>
+  </si>
+  <si>
+    <t>1. go to the homapage 2. Click on each link in the navigation menu(Home, Services, About Us etc)</t>
+  </si>
+  <si>
+    <t>dropdown links will navigate to the correct section/page</t>
+  </si>
+  <si>
+    <t>1. go to the Homepage 2. click on the Click on the CT Drilling dropdown 3. click on the links in the dropdown</t>
+  </si>
+  <si>
+    <t>Verify dropdown attached naigation links like CT Drilling, Excellence, Services.</t>
+  </si>
+  <si>
+    <t>Did not found as per expectation for CT Drilling dropdown</t>
+  </si>
+  <si>
+    <t>Functionality Testing</t>
+  </si>
+  <si>
+    <t>Footer</t>
+  </si>
+  <si>
+    <t>Verify footer social media links</t>
+  </si>
+  <si>
+    <t>Each icon should open the respective social media page in a new tab</t>
+  </si>
+  <si>
+    <t>1. go to the Homepage 2. Click on the social media icons(Facebook, Instagram etc)</t>
+  </si>
+  <si>
+    <t>checking the newsletter form by submitting it empty</t>
+  </si>
+  <si>
+    <t>1. go to the Homepage 2. Scroll down to the footer section 3. Submit the newsletter form empty by clicking send button</t>
+  </si>
+  <si>
+    <t>checking the newsletter form filling only name field and submit it without filling the email field</t>
+  </si>
+  <si>
+    <t>1. go to the Homepage 2. Scroll down to the footer section 3. Submit the newsletter form by only filling out the name field</t>
+  </si>
+  <si>
+    <t>checking the newsletter form filling only email field and submit it without filling the name field</t>
+  </si>
+  <si>
+    <t>checking the newsletter form by filling out with valid data and submit it</t>
+  </si>
+  <si>
+    <t>should submit it and show success message</t>
+  </si>
+  <si>
+    <t>1. go to the Homepage 2. Scroll down to the footer section 3. Submit the newsletter form with valid data</t>
+  </si>
+  <si>
+    <t>rafid, submanrafid@gmail.com</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>checking contact form by filling it out empty and then submit it</t>
+  </si>
+  <si>
+    <t>1. go to the Homepage 2. Click on the contact link 3. scroll down to the contact form 4. submit it with empty data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the logo in the footer section </t>
+  </si>
+  <si>
+    <t>should be match with the previous logo design</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the logo color is not same</t>
+  </si>
+  <si>
+    <t>1. go to the Homepage 2. Scroll down to the footer section 3. check the logo design</t>
+  </si>
+  <si>
+    <t>Verify the contact form by giving all valid data and submit it</t>
+  </si>
+  <si>
+    <t>should submit and show success message</t>
+  </si>
+  <si>
+    <t>1. go to the Homepage 2. Click on the contact link 3. scroll down to the contact form 4. submit it with valid data</t>
+  </si>
+  <si>
+    <t>rafid mahin, 012345687 aron@gmail.com</t>
+  </si>
+  <si>
+    <t>Contact Form</t>
+  </si>
+  <si>
+    <t>Verify the contact form by giving only first name and email and then submit it</t>
+  </si>
+  <si>
+    <t>should show error message for other required field</t>
+  </si>
+  <si>
+    <t>rahul, rahul@gmail.com</t>
+  </si>
+  <si>
+    <t>1. go to the Homepage 2. Click on the contact link 3. scroll down to the contact form 4. submit it with only valid data for first name and email</t>
+  </si>
+  <si>
+    <t>Verify the contact form with valid first name, last name and wrong email address then click the send button</t>
+  </si>
+  <si>
+    <t>should show error for wrong email address</t>
+  </si>
+  <si>
+    <t>rahul, amin, rahul@gmal.com</t>
+  </si>
+  <si>
+    <t>1. go to the Homepage 2. Click on the contact link 3. scroll down to the contact form 4. submit it with valid first name, last name and wrong email</t>
+  </si>
+  <si>
+    <t>Checking the spelling in the contact form</t>
+  </si>
+  <si>
+    <t>should show correct spellings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. go to the Homepage 2. Click on the contact link 3. scroll down to the contact form 4. check the spelling </t>
+  </si>
+  <si>
+    <t>Homapage</t>
+  </si>
+  <si>
+    <t>Verify homepage text content</t>
+  </si>
+  <si>
+    <t>The text content should match the design and be free of any error or inconsistencies</t>
+  </si>
+  <si>
+    <t>1. go to the homapage 2. Check if all the headings, subheadings and paragraph content match the design specs and are free from gramatical errors</t>
+  </si>
+  <si>
+    <t>Homepage</t>
+  </si>
+  <si>
+    <t>Verify images are loaded correctly</t>
+  </si>
+  <si>
+    <t>Should load all images correctly</t>
+  </si>
+  <si>
+    <t>1. Open the homapage 2. Scroll down the homepage 3. Check if all images are displayed properly and none are broken</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -534,6 +564,13 @@
     </font>
     <font>
       <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
@@ -583,7 +620,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -592,6 +629,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -893,8 +933,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -911,7 +951,7 @@
     <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -922,28 +962,28 @@
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -951,570 +991,570 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>164</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>22</v>
+        <v>165</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>23</v>
+        <v>166</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>24</v>
+        <v>167</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>168</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>25</v>
+        <v>169</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>26</v>
+        <v>170</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>28</v>
+        <v>171</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1303664096</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>21</v>
+        <v>119</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>38</v>
+        <v>122</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>48</v>
+        <v>132</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>50</v>
+        <v>133</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>51</v>
+        <v>134</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>53</v>
+        <v>135</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>56</v>
+        <v>135</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>57</v>
+        <v>137</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>58</v>
+        <v>138</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="1">
-        <v>1303664096</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" s="1">
-        <v>1303664096</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>21</v>
+        <v>152</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>76</v>
+        <v>161</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>77</v>
+        <v>162</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>78</v>
+        <v>163</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
@@ -1522,31 +1562,31 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="E21" s="1" t="s">
-        <v>159</v>
+        <v>104</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
@@ -1554,31 +1594,31 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="H22" s="1" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
@@ -1586,31 +1626,31 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="72" x14ac:dyDescent="0.3">
@@ -1618,31 +1658,31 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="H24" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="72" x14ac:dyDescent="0.3">
@@ -1650,31 +1690,31 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
@@ -1682,31 +1722,31 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
@@ -1714,31 +1754,31 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
@@ -1746,31 +1786,31 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
@@ -1778,31 +1818,31 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="H29" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
@@ -1810,31 +1850,31 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="H30" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
@@ -1842,31 +1882,31 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>108</v>
+        <v>53</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="H31" s="1">
         <v>1303664096</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
@@ -1874,31 +1914,31 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>108</v>
+        <v>53</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="72" x14ac:dyDescent="0.3">
@@ -1906,31 +1946,31 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>112</v>
+        <v>57</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>108</v>
+        <v>53</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>114</v>
+        <v>59</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="72" x14ac:dyDescent="0.3">
@@ -1938,31 +1978,31 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>108</v>
+        <v>53</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="H34" s="1">
         <v>130366409</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>116</v>
+        <v>61</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="72" x14ac:dyDescent="0.3">
@@ -1970,31 +2010,31 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>117</v>
+        <v>62</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="72" x14ac:dyDescent="0.3">
@@ -2002,31 +2042,31 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>122</v>
+        <v>67</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>123</v>
+        <v>68</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="72" x14ac:dyDescent="0.3">
@@ -2034,31 +2074,31 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>124</v>
+        <v>69</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>126</v>
+        <v>71</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
@@ -2066,31 +2106,31 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>127</v>
+        <v>72</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>129</v>
+        <v>74</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
@@ -2098,31 +2138,31 @@
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="H39" s="1">
         <v>1303664096</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
@@ -2130,31 +2170,31 @@
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="H40" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
@@ -2162,31 +2202,31 @@
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
@@ -2194,31 +2234,31 @@
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="H42" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>141</v>
+        <v>86</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="72" x14ac:dyDescent="0.3">
@@ -2226,31 +2266,31 @@
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>143</v>
+        <v>88</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>144</v>
+        <v>89</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -2258,31 +2298,31 @@
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>145</v>
+        <v>90</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>146</v>
+        <v>91</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>147</v>
+        <v>92</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -2290,31 +2330,31 @@
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>148</v>
+        <v>93</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>149</v>
+        <v>94</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>147</v>
+        <v>92</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -2322,31 +2362,31 @@
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>151</v>
+        <v>96</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>152</v>
+        <v>97</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -2354,31 +2394,31 @@
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="H47" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="72" x14ac:dyDescent="0.3">
@@ -2386,31 +2426,31 @@
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>156</v>
+        <v>101</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>157</v>
+        <v>102</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>158</v>
+        <v>103</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -2452,9 +2492,9 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="H7" r:id="rId1"/>
-    <hyperlink ref="H10" r:id="rId2"/>
-    <hyperlink ref="H15" r:id="rId3"/>
+    <hyperlink ref="H7" r:id="rId1" display="submanmahin@gmail.com"/>
+    <hyperlink ref="H10" r:id="rId2" display="jawan@20"/>
+    <hyperlink ref="H15" r:id="rId3" display="mahin@gmal.com"/>
     <hyperlink ref="H32" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testcase.xlsx
+++ b/testcase.xlsx
@@ -413,9 +413,6 @@
     <t>Footer</t>
   </si>
   <si>
-    <t>Verify footer social media links</t>
-  </si>
-  <si>
     <t>Each icon should open the respective social media page in a new tab</t>
   </si>
   <si>
@@ -540,6 +537,9 @@
   </si>
   <si>
     <t>1. Open the homapage 2. Scroll down the homepage 3. Check if all images are displayed properly and none are broken</t>
+  </si>
+  <si>
+    <t>Verify footer social media icons</t>
   </si>
 </sst>
 </file>
@@ -933,8 +933,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1024,13 +1024,13 @@
         <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>13</v>
@@ -1039,7 +1039,7 @@
         <v>14</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>16</v>
@@ -1056,13 +1056,13 @@
         <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>13</v>
@@ -1071,7 +1071,7 @@
         <v>14</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>16</v>
@@ -1219,10 +1219,10 @@
         <v>128</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>117</v>
@@ -1231,7 +1231,7 @@
         <v>14</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>21</v>
@@ -1251,7 +1251,7 @@
         <v>128</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>53</v>
@@ -1263,7 +1263,7 @@
         <v>14</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>16</v>
@@ -1283,7 +1283,7 @@
         <v>128</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>53</v>
@@ -1295,7 +1295,7 @@
         <v>14</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>16</v>
@@ -1315,7 +1315,7 @@
         <v>128</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>53</v>
@@ -1327,7 +1327,7 @@
         <v>14</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>16</v>
@@ -1347,19 +1347,19 @@
         <v>128</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>16</v>
@@ -1376,10 +1376,10 @@
         <v>18</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>53</v>
@@ -1391,7 +1391,7 @@
         <v>14</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>16</v>
@@ -1411,19 +1411,19 @@
         <v>128</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>21</v>
@@ -1440,22 +1440,22 @@
         <v>18</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>16</v>
@@ -1472,22 +1472,22 @@
         <v>18</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H18" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>16</v>
@@ -1504,22 +1504,22 @@
         <v>18</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>117</v>
       </c>
       <c r="H19" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>21</v>
@@ -1536,13 +1536,13 @@
         <v>18</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E20" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>13</v>
@@ -1551,7 +1551,7 @@
         <v>14</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>16</v>
